--- a/DragPrediction/NL2VP DragX/0.75L/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75L/n/8/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.235294118E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>5.4986393044549588E-2</v>
+        <v>8.3163199435525623E-2</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>7.6554490261133203</v>
+        <v>11.578348730955163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>6.1734643168921487E-2</v>
+        <v>9.3369471203147578E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>6.9524882925458678E-2</v>
+        <v>0.10515168179474922</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8.6640479038400831E-2</v>
+        <v>0.13103786297861586</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>8.5379867279157029E-2</v>
+        <v>0.12913127297807112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>7.7851480752123975E-2</v>
+        <v>0.11774509768070028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>8.1122694064723139E-2</v>
+        <v>0.12269258650564326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>8.107626126342149E-2</v>
+        <v>0.12262236003503496</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>9.2779793806388428E-2</v>
+        <v>0.14032316121656291</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>9.2696484294818193E-2</v>
+        <v>0.14019716121652692</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>5.1232588967181823E-2</v>
+        <v>7.7485824728021166E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>8.9527627335061991E-2</v>
+        <v>0.13540447945045173</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>5.2278507214549588E-2</v>
+        <v>7.9067705316708412E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>9.749926130164463E-2</v>
+        <v>0.14746103651271997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5.5811663600243804E-2</v>
+        <v>8.4411365318235176E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>6.0447388701173561E-2</v>
+        <v>9.1422585908473686E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>8.4034394164499995E-2</v>
+        <v>0.12709633591866618</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.11333415336137605</v>
+        <v>0.17141023946073908</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.8385429187933889E-2</v>
+        <v>5.8055364722469603E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>9.349090582843389E-2</v>
+        <v>0.14139867004039963</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.1238265400466941E-2</v>
+        <v>6.2370086488408256E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4.9628251964318179E-2</v>
+        <v>7.5059373550857303E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4.5047502973425621E-2</v>
+        <v>6.8131300607701381E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.16503594639828098</v>
+        <v>0.24960570360072767</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4.920938480830165E-2</v>
+        <v>7.4425865315382173E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>5.5329897762991735E-2</v>
+        <v>8.3682727082732875E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5.0063952542231407E-2</v>
+        <v>7.5718341198104402E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4.1218859184830578E-2</v>
+        <v>6.2340735900164576E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2.6146388005152895E-2</v>
+        <v>3.9544642952474944E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>3.4181712910090908E-2</v>
+        <v>5.1697528250064836E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>9.6448336315983485E-2</v>
+        <v>0.14587158357108937</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4.0295675450243804E-2</v>
+        <v>6.0944482958589188E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>4.7959186738004138E-2</v>
+        <v>7.2535025314841947E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>3.6120635613099181E-2</v>
+        <v>5.4630017662667403E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>4.8080099876169423E-2</v>
+        <v>7.2717898256070668E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.7519524874491736E-2</v>
+        <v>7.1870066491122542E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>3.2864785554545452E-2</v>
+        <v>4.9705764720083999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>4.467343509887603E-2</v>
+        <v>6.7565548254598554E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>4.0701931833136369E-2</v>
+        <v>6.1558918252882386E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>4.093937210871075E-2</v>
+        <v>6.1918030605926162E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>5.3777980411623967E-2</v>
+        <v>8.1335557082062263E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>4.1671458525433892E-2</v>
+        <v>6.3025261782713102E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>4.1341119976859506E-2</v>
+        <v>6.2525647076688007E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>4.0402654664219009E-2</v>
+        <v>6.1106281782164817E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>4.1445256866322312E-2</v>
+        <v>6.2683147076733003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>3.7753934922632237E-2</v>
+        <v>5.7100272369255543E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>3.6155911473929755E-2</v>
+        <v>5.4683370015623824E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>3.6632221354933887E-2</v>
+        <v>5.5403756486417877E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>5.4756891675371904E-3</v>
+        <v>8.2816094141308812E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>1.2954408523995868E-2</v>
+        <v>1.9592666476186141E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>1.6208502548727275E-2</v>
+        <v>2.451426353641584E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>1.807477445708678E-2</v>
+        <v>2.7336873537222302E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>1.0062335165033057E-2</v>
+        <v>1.5218601180818759E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>3.3735941682396698E-3</v>
+        <v>5.1023329426342807E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>-9.214742560797521E-3</v>
+        <v>-1.3936674709864259E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.11057321080714463</v>
+        <v>-0.16723450063601658</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-0.13770477462461159</v>
+        <v>-0.20826915535362314</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-7.1217871049752066E-3</v>
+        <v>-1.077122117954808E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-0.15712744797330991</v>
+        <v>-0.23764463477378081</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-0.16299541876155374</v>
+        <v>-0.24651954359984593</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-0.17015247355976035</v>
+        <v>-0.25734410477940922</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-0.1116998249343471</v>
+        <v>-0.16893842828356223</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-0.11357772750392976</v>
+        <v>-0.17177862887260903</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-9.9468183596417362E-2</v>
+        <v>-0.15043889827827667</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-8.4092604643809923E-2</v>
+        <v>-0.12718437533045604</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E109" si="1">A67*$E$1</f>
-        <v>-8.0874954446590916E-2</v>
+        <v>-0.1223178970937715</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>-7.5802017761900833E-2</v>
+        <v>-0.1146454235621676</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-5.1069571855276864E-2</v>
+        <v>-7.7239272375009549E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>3.8072936843553721E-3</v>
+        <v>5.7582741192922799E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>3.1214424130338841E-2</v>
+        <v>4.7209704719370839E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>5.0881692571487606E-2</v>
+        <v>7.6955117669046003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>6.5523167710376029E-2</v>
+        <v>9.9099358263608217E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>6.8438575900177684E-2</v>
+        <v>0.10350871591192687</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>9.201377101509918E-2</v>
+        <v>0.13916460356917307</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>-6.939697015480166E-2</v>
+        <v>-0.10495822238292923</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>0.11588361227020662</v>
+        <v>0.17526612357948779</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>0.12994189632530578</v>
+        <v>0.19652832711497448</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>0.14105736989537604</v>
+        <v>0.2133397288844836</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>0.17219935558864463</v>
+        <v>0.26043987536852903</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>1.790008584596281E-2</v>
+        <v>2.7072668831264458E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>-9.314157761178099E-2</v>
+        <v>-0.14087033474613103</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-0.10231147188551654</v>
+        <v>-0.1547391794559759</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>-0.13012832994404133</v>
+        <v>-0.19681029535034916</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>-5.5026912504049584E-2</v>
+        <v>-8.3224482376719602E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>-0.16136554167607436</v>
+        <v>-0.24405446477561218</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>-4.0202670998454551E-2</v>
+        <v>-6.0803820017372529E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>-3.7091681478842974E-2</v>
+        <v>-5.60986588395576E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>-3.7005611318752067E-2</v>
+        <v>-5.5968483545402764E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>2.5442512475975211E-2</v>
+        <v>3.8480078834523722E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>-4.2072381466066115E-2</v>
+        <v>-6.3631630606415759E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>0.10801300333780166</v>
+        <v>0.16336236004667495</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>-9.2704472206809926E-2</v>
+        <v>-0.14020924239300098</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>1.662262432962397E-2</v>
+        <v>2.5140594713065383E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>0.14661146801497935</v>
+        <v>0.22173992653394251</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>-5.9587454854586773E-3</v>
+        <v>-9.0121994143396202E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>0.2572164262801116</v>
+        <v>0.38902244305232575</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>2.8112647662595042E-2</v>
+        <v>4.2518477659206959E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>0.20666480272642562</v>
+        <v>0.31256653244224591</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>6.7879201535578516E-3</v>
+        <v>1.0266270002933221E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>0.26444945608583059</v>
+        <v>0.39996191129074538</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>0.44480689559499176</v>
+        <v>0.67274033666279975</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>0.34692051459531814</v>
+        <v>0.52469380779697128</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>0.72884295691253309</v>
+        <v>1.1023256632561267</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>0.42255853513341324</v>
+        <v>0.6390911966531857</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>0.45932937698152065</v>
+        <v>0.69470460725731054</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>0.8143827702863059</v>
+        <v>1.2316988438813259</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>0.87378631531030171</v>
+        <v>1.3215426868481719</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>0.90605277521978922</v>
+        <v>1.3703435245091737</v>
       </c>
     </row>
   </sheetData>
@@ -2326,5 +2326,6 @@
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>